--- a/metadata/utils/Python Programs.xlsx
+++ b/metadata/utils/Python Programs.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Python_Programs" sheetId="1" r:id="rId1"/>
+    <sheet name="Modules" sheetId="2" r:id="rId2"/>
+    <sheet name="Metadata Repo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>Web Lineage Viewer</t>
   </si>
@@ -34,13 +34,193 @@
   </si>
   <si>
     <t>MetadataWeb.py</t>
+  </si>
+  <si>
+    <t>Commands</t>
+  </si>
+  <si>
+    <t>matplotlib</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>numpy</t>
+  </si>
+  <si>
+    <t>pip install --upgrade pip</t>
+  </si>
+  <si>
+    <t>python3 -m pip install --upgrade pip</t>
+  </si>
+  <si>
+    <t>scipy</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>docx</t>
+  </si>
+  <si>
+    <t>openpyxl</t>
+  </si>
+  <si>
+    <t>xlsxwriter</t>
+  </si>
+  <si>
+    <t>Levenshtein</t>
+  </si>
+  <si>
+    <t>difflib</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>String Matching</t>
+  </si>
+  <si>
+    <t>Flask</t>
+  </si>
+  <si>
+    <t>Web application</t>
+  </si>
+  <si>
+    <t>wheel install scipy-0.18.0-cp27-cp27m-win32.whl</t>
+  </si>
+  <si>
+    <t>http://www.lfd.uci.edu/~gohlke/pythonlibs/#scipy
+ Christoph Gohlke
+http://stackoverflow.com/questions/20583380/install-scipy-on-windows-with-easy-install</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Uses C and Fortran extensions. So use the wheel package downloaded.</t>
+  </si>
+  <si>
+    <t>python setup.py install</t>
+  </si>
+  <si>
+    <t>NUMPY_MKL</t>
+  </si>
+  <si>
+    <t>wheel install --force numpy-1.11.1+mkl-cp27-cp27m-win32.whl</t>
+  </si>
+  <si>
+    <t>fuzzywuzzy</t>
+  </si>
+  <si>
+    <t>LDM Report Processing</t>
+  </si>
+  <si>
+    <t>XSDFields_Matching.py</t>
+  </si>
+  <si>
+    <t>http://aka.ms/vcpython27</t>
+  </si>
+  <si>
+    <t>Dependencies</t>
+  </si>
+  <si>
+    <t>yappi</t>
+  </si>
+  <si>
+    <t>profiling</t>
+  </si>
+  <si>
+    <t>cProfile</t>
+  </si>
+  <si>
+    <t>Built-In</t>
+  </si>
+  <si>
+    <t>pycallgraph</t>
+  </si>
+  <si>
+    <t>Intel® Math Kernel Library
+http://www.lfd.uci.edu/~gohlke/pythonlibs/#scipy</t>
+  </si>
+  <si>
+    <t>Visual C++ complier</t>
+  </si>
+  <si>
+    <t>Graphviz software (dot commands)
+Env Var 'PATH' = 'C:\Program Files (x86)\Graphviz2.38\bin'</t>
+  </si>
+  <si>
+    <t>snakeviz</t>
+  </si>
+  <si>
+    <t>https://jiffyclub.github.io/snakeviz/
+snakeviz program.prof
+python -m cProfile -o program.prof my_program.py</t>
+  </si>
+  <si>
+    <t>https://gephi.org/
+C:\Python27\Lib\site-packages\pycallgraph</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>C:\Python27\;</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Graphviz2.38\bin\;</t>
+  </si>
+  <si>
+    <t>Profiling</t>
+  </si>
+  <si>
+    <t>Set the PATH environment variable</t>
+  </si>
+  <si>
+    <t>From: C:\Python27\Scripts\</t>
+  </si>
+  <si>
+    <t>C:\Python27\python pycallgraph -v --max-depth 10 graphviz --output-file=XSDFields_Matching_22_09_1125.png -- C:\apps\apps\metadata\XSDFields_Matching.py</t>
+  </si>
+  <si>
+    <t>MetadataExtractor.py</t>
+  </si>
+  <si>
+    <t>CSV Extraction for EIM</t>
+  </si>
+  <si>
+    <t>Phase1_2_Duplicates.py</t>
+  </si>
+  <si>
+    <t>-
+-</t>
+  </si>
+  <si>
+    <t>- Delta XSD Fields
+- Matching XSD Fields</t>
+  </si>
+  <si>
+    <t>http://ejdevl01.unix.srv.westpac.com.au:7114/mmhelp_en/</t>
+  </si>
+  <si>
+    <t>http://ejdevl01.unix.srv.westpac.com.au:7114/mm</t>
+  </si>
+  <si>
+    <t>Metadata Repository</t>
+  </si>
+  <si>
+    <t>Metadata Repository - Help Documents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +231,42 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -99,19 +315,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,21 +665,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="86.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -428,8 +691,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="J1" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -439,73 +705,115 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>CONCATENATE(K2,K3)</f>
+        <v>C:\Python27\;C:\Program Files (x86)\Graphviz2.38\bin\;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="J8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="23.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="K9" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:11">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:11">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:11">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:11">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:11">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:11">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -535,36 +843,455 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" style="1" customWidth="1"/>
+    <col min="6" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5" t="str">
+        <f>CONCATENATE("pip install ",A2)</f>
+        <v>pip install pandas</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5" t="str">
+        <f>CONCATENATE("pip install ",A3)</f>
+        <v>pip install numpy</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="30">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="75">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5" t="str">
+        <f t="shared" ref="C6:C15" si="0">CONCATENATE("pip install ",A6)</f>
+        <v>pip install matplotlib</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>pip install csv</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>pip install docx</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>pip install openpyxl</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>pip install xlsxwriter</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>pip install Levenshtein</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>pip install difflib</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>pip install Flask</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>pip install fuzzywuzzy</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>pip install yappi</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="45">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6" t="str">
+        <f t="shared" ref="C18:C19" si="1">CONCATENATE("pip install ",A18)</f>
+        <v>pip install pycallgraph</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>pip install snakeviz</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" location="scipy_x000a_ Christoph Gohlke" display="http://www.lfd.uci.edu/~gohlke/pythonlibs/#scipy_x000a_ Christoph Gohlke"/>
+    <hyperlink ref="E15" r:id="rId2"/>
+    <hyperlink ref="E19" r:id="rId3"/>
+    <hyperlink ref="E18" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="86.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://ejdevl01.unix.srv.westpac.com.au:7114/mm"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4" display="http://ejdevl01.unix.srv.westpac.com.au:7114/mm"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/metadata/utils/Python Programs.xlsx
+++ b/metadata/utils/Python Programs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Python_Programs" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -370,6 +370,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -667,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -853,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -893,7 +895,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3"/>
@@ -1101,7 +1103,7 @@
       <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="6"/>

--- a/metadata/utils/Python Programs.xlsx
+++ b/metadata/utils/Python Programs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Python_Programs" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>Web Lineage Viewer</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>Metadata Repository - Help Documents</t>
+  </si>
+  <si>
+    <t>GCM IFS Documents - Harvesting</t>
+  </si>
+  <si>
+    <t>GESB_IFS_Processor</t>
+  </si>
+  <si>
+    <t>GESB_IFS_Processor.py</t>
   </si>
 </sst>
 </file>
@@ -669,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -767,9 +776,15 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="J8" s="15" t="s">
         <v>50</v>
       </c>
@@ -855,7 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
